--- a/HW/PIC18F_ETH/PIC18F_ETH/BOM/BOM.xlsx
+++ b/HW/PIC18F_ETH/PIC18F_ETH/BOM/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GitHub\DTS_Board\HW\PIC18F_ETH\PIC18F_ETH\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F388F48-54A6-492B-A149-D8453838AAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1892646-EBCE-4B45-80D4-AF59A0859F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="6060" windowWidth="25440" windowHeight="15390" xr2:uid="{4BA8F30C-D6ED-4DFC-ADA8-D06EEE0031DF}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="221">
   <si>
     <t>Reference</t>
   </si>
@@ -98,9 +98,6 @@
     <t>100n 25V</t>
   </si>
   <si>
-    <t>BT00008-090680</t>
-  </si>
-  <si>
     <t>C;M;100n;10p;25V;S;0603</t>
   </si>
   <si>
@@ -206,15 +203,6 @@
     <t>C3002,C3004,C3006,C3008</t>
   </si>
   <si>
-    <t>10u 50V</t>
-  </si>
-  <si>
-    <t>BT00007-060100</t>
-  </si>
-  <si>
-    <t>C;M;10u;10p;50V;S;0603</t>
-  </si>
-  <si>
     <t>C2011,C3005,C3007</t>
   </si>
   <si>
@@ -467,9 +455,6 @@
     <t>BT10000-00001</t>
   </si>
   <si>
-    <t>41010276</t>
-  </si>
-  <si>
     <t>bt_footprints:RJ45_LED_Shield</t>
   </si>
   <si>
@@ -501,15 +486,6 @@
   </si>
   <si>
     <t>C3009</t>
-  </si>
-  <si>
-    <t>100n 100V</t>
-  </si>
-  <si>
-    <t>BT00013-090680</t>
-  </si>
-  <si>
-    <t>C;M;100n;10p;100V;S;0603</t>
   </si>
   <si>
     <t>C3001</t>
@@ -649,6 +625,98 @@
   </si>
   <si>
     <t>118-SRR1208-330YLCT-ND</t>
+  </si>
+  <si>
+    <t>311-1341-1-ND</t>
+  </si>
+  <si>
+    <t>CC0603KRX7R8BB104</t>
+  </si>
+  <si>
+    <t>10u 35V</t>
+  </si>
+  <si>
+    <t>BT00014-060100</t>
+  </si>
+  <si>
+    <t>C;M;10u;10p;35V;S;0603</t>
+  </si>
+  <si>
+    <t>490-13248-1-ND</t>
+  </si>
+  <si>
+    <t>GRM188R6YA106MA73D</t>
+  </si>
+  <si>
+    <t>10n 100V</t>
+  </si>
+  <si>
+    <t>BT00013-090100</t>
+  </si>
+  <si>
+    <t>C;M;10n;10p;100V;S;0603</t>
+  </si>
+  <si>
+    <t>BT00008-091000</t>
+  </si>
+  <si>
+    <t>732-8449-1-ND</t>
+  </si>
+  <si>
+    <t>865080640004 _</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+PESD2USB3UXT-QR</t>
+  </si>
+  <si>
+    <t>1727-PESD2USB3UXT-QRCT-ND</t>
+  </si>
+  <si>
+    <t>478-7800-1-ND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+SD0805S020S1R0</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>use BT00014-060100</t>
+  </si>
+  <si>
+    <t>490-4781-1-ND</t>
+  </si>
+  <si>
+    <t>GCM188R72A103KA37D</t>
+  </si>
+  <si>
+    <t>B3B-XH-A</t>
+  </si>
+  <si>
+    <t>B2B-XH-A</t>
+  </si>
+  <si>
+    <t>455-2248-ND</t>
+  </si>
+  <si>
+    <t>455-B2B-XH-A-ND</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>BT00002-00499</t>
+  </si>
+  <si>
+    <t>B1931URO-20D000114U1930</t>
+  </si>
+  <si>
+    <t>3147-B1931URO-20D000114U1930CT-ND</t>
   </si>
 </sst>
 </file>
@@ -676,18 +744,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -702,13 +764,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -716,7 +774,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -759,8 +823,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{A2693059-933D-4A16-ADEC-ECE212536AFF}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12" unboundColumnsRight="3">
-    <queryTableFields count="11">
+  <queryTableRefresh nextId="14" unboundColumnsRight="5">
+    <queryTableFields count="13">
       <queryTableField id="1" name="Reference" tableColumnId="1"/>
       <queryTableField id="2" name="Value" tableColumnId="2"/>
       <queryTableField id="3" name="Qty" tableColumnId="3"/>
@@ -772,33 +836,37 @@
       <queryTableField id="9" dataBound="0" tableColumnId="9"/>
       <queryTableField id="10" dataBound="0" tableColumnId="10"/>
       <queryTableField id="11" dataBound="0" tableColumnId="11"/>
+      <queryTableField id="12" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="13"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}" name="PIC18F_ETH" displayName="PIC18F_ETH" ref="A1:K39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:K39" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="L3001"/>
-        <filter val="L3002"/>
-      </filters>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}" name="PIC18F_ETH" displayName="PIC18F_ETH" ref="A1:M39" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:M39" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}">
+    <filterColumn colId="10">
+      <filters blank="1"/>
+    </filterColumn>
+    <filterColumn colId="11">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{984824EA-7D32-483A-AE35-57DC45C6C555}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{EFFFABF0-C07D-48F9-AB7A-64D1A1B96BD0}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="7"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{984824EA-7D32-483A-AE35-57DC45C6C555}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EFFFABF0-C07D-48F9-AB7A-64D1A1B96BD0}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{374C2E51-D331-426E-B0E4-78AE2734E598}" uniqueName="3" name="Qty" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{6AAA9D83-C3BE-46BE-9BC1-20334CD4A32E}" uniqueName="4" name="DNP" queryTableFieldId="4" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6AAA9D83-C3BE-46BE-9BC1-20334CD4A32E}" uniqueName="4" name="DNP" queryTableFieldId="4" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{585B2894-55B1-4E5E-B967-4BAB4E395C19}" uniqueName="5" name="#" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{197B5D8B-EC94-4ABB-B5E9-B344D40F6E16}" uniqueName="6" name="CPN" queryTableFieldId="6" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{960E8704-0E07-49A4-AD64-E3018CDE2616}" uniqueName="7" name="MPN" queryTableFieldId="7" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{D7C282EF-28F0-4F77-850B-4801763D5B2B}" uniqueName="8" name="Footprint" queryTableFieldId="8" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1AD1BA29-0B55-41E2-A132-E0285EE9966A}" uniqueName="9" name="DigiKey" queryTableFieldId="9" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{E3AFBD2B-FC05-4D3D-97A2-E767A94FB86E}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{5CE1C3D1-4C42-4B39-8D47-A9098F395328}" uniqueName="11" name="Cart" queryTableFieldId="11" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{197B5D8B-EC94-4ABB-B5E9-B344D40F6E16}" uniqueName="6" name="CPN" queryTableFieldId="6" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{960E8704-0E07-49A4-AD64-E3018CDE2616}" uniqueName="7" name="MPN" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{D7C282EF-28F0-4F77-850B-4801763D5B2B}" uniqueName="8" name="Footprint" queryTableFieldId="8" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{1AD1BA29-0B55-41E2-A132-E0285EE9966A}" uniqueName="9" name="DigiKey" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E3AFBD2B-FC05-4D3D-97A2-E767A94FB86E}" uniqueName="10" name="Column1" queryTableFieldId="10" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{5CE1C3D1-4C42-4B39-8D47-A9098F395328}" uniqueName="11" name="Cart" queryTableFieldId="11" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{4B29DA80-3FE5-42C4-85FA-96A3E0801950}" uniqueName="12" name="ref" queryTableFieldId="12" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{0ACD3A79-29A1-45BF-8B85-BD86D17C7385}" uniqueName="13" name="comment" queryTableFieldId="13" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1121,15 +1189,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB610556-95DE-4F17-BCC8-3EBBEC3501D8}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -1137,11 +1205,11 @@
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,1228 +1235,1382 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2">
         <v>55</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J2" t="s">
+        <v>163</v>
+      </c>
+      <c r="K2" t="s">
+        <v>169</v>
+      </c>
+      <c r="L2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C4">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K5" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C6">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="1" t="s">
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C7">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>220</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>36</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C8">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J8" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>47</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" t="s">
+        <v>212</v>
+      </c>
+      <c r="K10" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>48</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
         <v>49</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="1" t="s">
+      <c r="F11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
+      <c r="I11" t="s">
+        <v>173</v>
+      </c>
+      <c r="J11" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>56</v>
+      <c r="F12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G12" t="s">
+        <v>195</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" t="s">
+        <v>169</v>
+      </c>
+      <c r="L12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>60</v>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>208</v>
+      </c>
+      <c r="J13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K13" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>10</v>
       </c>
       <c r="E14">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" t="s">
+        <v>169</v>
+      </c>
+      <c r="L14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J15" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
         <v>66</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="1" t="s">
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>74</v>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>153</v>
+      </c>
+      <c r="K16" t="s">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>10</v>
       </c>
       <c r="E17">
         <v>16</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>78</v>
+      <c r="I17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18">
         <v>17</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19">
         <v>18</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>82</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20">
         <v>19</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I20" t="s">
+        <v>181</v>
+      </c>
+      <c r="J20" t="s">
+        <v>180</v>
+      </c>
+      <c r="K20" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
         <v>20</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G21" s="1" t="s">
+      <c r="F21" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="s">
+        <v>185</v>
+      </c>
+      <c r="J21" t="s">
+        <v>186</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
         <v>90</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22">
         <v>21</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" t="s">
+        <v>169</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
         <v>95</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>10</v>
       </c>
       <c r="E23">
         <v>22</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>102</v>
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>3</v>
       </c>
       <c r="E24">
         <v>23</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="F24" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H24" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>106</v>
+      <c r="J24" s="1"/>
+      <c r="K24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>3</v>
       </c>
       <c r="E25">
         <v>24</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>106</v>
+      <c r="I25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>169</v>
+      </c>
+      <c r="L25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26">
         <v>25</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I26" t="s">
+        <v>164</v>
+      </c>
+      <c r="J26" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" t="s">
+        <v>169</v>
+      </c>
+      <c r="L26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
         <v>107</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27">
         <v>26</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="1" t="s">
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+      <c r="G27" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>115</v>
+      <c r="I27" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" t="s">
+        <v>156</v>
+      </c>
+      <c r="K27" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" t="s">
+        <v>111</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>10</v>
       </c>
       <c r="E28">
         <v>27</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H28" s="1" t="s">
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>119</v>
+      <c r="I28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" t="s">
+        <v>169</v>
+      </c>
+      <c r="L28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>115</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>123</v>
+      <c r="I29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" t="s">
+        <v>169</v>
+      </c>
+      <c r="L29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" t="s">
+        <v>119</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>10</v>
       </c>
       <c r="E30">
         <v>29</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="1" t="s">
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K30" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>127</v>
+      <c r="I30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" t="s">
+        <v>169</v>
+      </c>
+      <c r="L30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
       <c r="E31">
         <v>30</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" t="s">
+        <v>189</v>
+      </c>
+      <c r="J31" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" t="s">
+        <v>169</v>
+      </c>
+      <c r="L31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
         <v>128</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
         <v>31</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+      <c r="H32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J32" t="s">
+        <v>130</v>
+      </c>
+      <c r="K32" t="s">
+        <v>169</v>
+      </c>
+      <c r="L32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
         <v>133</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
         <v>32</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>142</v>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33">
+        <v>41010276</v>
+      </c>
+      <c r="H33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34">
         <v>33</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="24" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>145</v>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" t="s">
+        <v>140</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
       <c r="E35">
         <v>34</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>148</v>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
       <c r="E36">
         <v>35</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>151</v>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K36" t="s">
+        <v>169</v>
+      </c>
+      <c r="L36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="E37">
         <v>36</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>155</v>
+      <c r="F37" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" t="s">
+        <v>210</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="K37" t="s">
+        <v>169</v>
+      </c>
+      <c r="L37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>147</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>10</v>
       </c>
       <c r="E38">
         <v>37</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38" t="s">
+        <v>202</v>
+      </c>
+      <c r="J38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K38" t="s">
+        <v>169</v>
+      </c>
+      <c r="L38" t="s">
+        <v>169</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/HW/PIC18F_ETH/PIC18F_ETH/BOM/BOM.xlsx
+++ b/HW/PIC18F_ETH/PIC18F_ETH/BOM/BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GitHub\DTS_Board\HW\PIC18F_ETH\PIC18F_ETH\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1892646-EBCE-4B45-80D4-AF59A0859F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C84BB19-CE64-4265-91B0-B62F6858922E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="6060" windowWidth="25440" windowHeight="15390" xr2:uid="{4BA8F30C-D6ED-4DFC-ADA8-D06EEE0031DF}"/>
   </bookViews>
@@ -845,14 +845,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}" name="PIC18F_ETH" displayName="PIC18F_ETH" ref="A1:M39" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M39" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}">
-    <filterColumn colId="10">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:M39" xr:uid="{6BFA4DE3-05D2-4C25-9488-A2DEC348757F}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{984824EA-7D32-483A-AE35-57DC45C6C555}" uniqueName="1" name="Reference" queryTableFieldId="1" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{EFFFABF0-C07D-48F9-AB7A-64D1A1B96BD0}" uniqueName="2" name="Value" queryTableFieldId="2" dataDxfId="9"/>
@@ -1192,7 +1185,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1243,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1288,7 +1281,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1402,7 +1395,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1469,7 +1462,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1507,7 +1500,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1545,7 +1538,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
@@ -1583,7 +1576,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +1614,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -1659,7 +1652,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1700,7 +1693,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1738,7 +1731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1776,7 +1769,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -1814,7 +1807,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -1852,7 +1845,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -1890,7 +1883,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1928,7 +1921,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -1966,7 +1959,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -2004,7 +1997,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>89</v>
       </c>
@@ -2042,7 +2035,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -2080,7 +2073,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>97</v>
       </c>
@@ -2113,7 +2106,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>101</v>
       </c>
@@ -2151,7 +2144,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -2189,7 +2182,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -2227,7 +2220,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -2265,7 +2258,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -2303,7 +2296,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2334,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>122</v>
       </c>
@@ -2379,7 +2372,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>127</v>
       </c>
@@ -2498,7 +2491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>142</v>
       </c>
@@ -2536,7 +2529,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -2574,7 +2567,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>146</v>
       </c>
